--- a/data/trans_camb/P1803-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1803-Estudios-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1803-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1803-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,33 +540,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +612,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,12 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6,65</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,67</t>
         </is>
       </c>
     </row>
@@ -584,12 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,48; 5,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,78; 5,96</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 5,63</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5,55; 8,03</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 5,03</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 6,83</t>
         </is>
       </c>
     </row>
@@ -607,12 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -638,6 +804,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -657,12 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10,05</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8,87</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,76</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,45</t>
         </is>
       </c>
     </row>
@@ -680,12 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 5,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,54; 16,82</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 6,34</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 10,06</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 5,54</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8,04; 14,1</t>
         </is>
       </c>
     </row>
@@ -703,12 +959,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -734,6 +1020,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -753,12 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>6,93</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12,39</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,8</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15,39</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,87</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13,93</t>
         </is>
       </c>
     </row>
@@ -776,12 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,66; 9,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,78; 15,36</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,61; 11,47</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13,14; 18,2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 9,66</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12,1; 15,81</t>
         </is>
       </c>
     </row>
@@ -799,12 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -830,6 +1236,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -849,12 +1285,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>4,57</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9,57</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5,51</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9,61</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5,05</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9,59</t>
         </is>
       </c>
     </row>
@@ -872,12 +1338,42 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,91; 5,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,74; 14,33</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 6,35</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8,5; 10,53</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 5,61</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 12,08</t>
         </is>
       </c>
     </row>
@@ -895,12 +1391,42 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -926,6 +1452,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -935,10 +1491,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P1803-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1803-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>5,74</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,96</t>
+          <t>2,82; 6,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 8,03</t>
+          <t>5,65; 8,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 6,83</t>
+          <t>4,78; 6,9</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,05</t>
+          <t>17,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>13,23</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 16,82</t>
+          <t>7,75; 38,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 10,06</t>
+          <t>5,86; 9,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,04; 14,1</t>
+          <t>7,87; 30,02</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,39</t>
+          <t>12,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,39</t>
+          <t>15,87</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,93</t>
+          <t>14,35</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,78; 15,36</t>
+          <t>10,05; 15,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,14; 18,2</t>
+          <t>13,55; 18,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,1; 15,81</t>
+          <t>12,42; 16,28</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,57</t>
+          <t>14,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>12,09</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,74; 14,33</t>
+          <t>8,02; 33,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,5; 10,53</t>
+          <t>7,74; 10,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,08</t>
+          <t>8,71; 24,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1803-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1803-Estudios-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,3</t>
+          <t>2,54; 5,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,05</t>
+          <t>2,88; 6,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,63</t>
+          <t>2,97; 5,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,18</t>
+          <t>5,51; 8,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,03</t>
+          <t>3,09; 5,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 6,9</t>
+          <t>4,83; 6,88</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,23</t>
+          <t>3,37; 5,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 38,6</t>
+          <t>7,54; 43,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,34</t>
+          <t>4,3; 6,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,86; 9,83</t>
+          <t>6,08; 10,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 5,54</t>
+          <t>4,11; 5,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 30,02</t>
+          <t>7,89; 28,58</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,36</t>
+          <t>4,8; 9,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,05; 15,92</t>
+          <t>10,24; 15,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,47</t>
+          <t>6,62; 11,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,76</t>
+          <t>13,44; 18,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,66</t>
+          <t>6,27; 9,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,42; 16,28</t>
+          <t>12,31; 16,23</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 5,41</t>
+          <t>3,88; 5,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,02; 33,63</t>
+          <t>8,0; 33,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,8; 6,35</t>
+          <t>4,78; 6,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,74; 10,49</t>
+          <t>7,65; 10,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,54; 5,61</t>
+          <t>4,57; 5,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,71; 24,29</t>
+          <t>8,66; 23,01</t>
         </is>
       </c>
     </row>
